--- a/Final_Benchmark.xlsx
+++ b/Final_Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo Fougeres\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E909E2-CE9C-49C3-82DE-2583C9272A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9267638B-CEB0-4449-95BB-EE8D7FE11EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{69E90E41-A97B-4E56-9CE4-B614DDABFD90}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{69E90E41-A97B-4E56-9CE4-B614DDABFD90}"/>
   </bookViews>
   <sheets>
     <sheet name="SEAL 10k" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>poly_modulus_degree</t>
   </si>
@@ -97,12 +97,24 @@
   <si>
     <t>15</t>
   </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +126,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -292,11 +310,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="61">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -481,6 +500,78 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -880,6 +971,102 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2286,9 +2473,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 10k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 10k'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2300,27 +2487,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 10k'!$B$2:$E$2</c:f>
+              <c:f>'Charm 10k'!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.45</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,9 +2645,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 10k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 10k'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2448,27 +2659,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 10k'!$B$3:$E$3</c:f>
+              <c:f>'Charm 10k'!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.14</c:v>
+                  <c:v>4.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.26</c:v>
+                  <c:v>4.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.35</c:v>
+                  <c:v>4.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.32</c:v>
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,9 +2764,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 10k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 10k'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2543,27 +2778,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 10k'!$B$4:$E$4</c:f>
+              <c:f>'Charm 10k'!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.02</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.13</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.59</c:v>
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,9 +2936,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 10k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 10k'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2691,27 +2950,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 10k'!$B$5:$E$5</c:f>
+              <c:f>'Charm 10k'!$B$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.5600000000000014</c:v>
+                  <c:v>0.63999999999999968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.039999999999997</c:v>
+                  <c:v>1.5199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.859999999999996</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.14</c:v>
+                  <c:v>6.5200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,9 +3085,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 10k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 10k'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2816,27 +3099,51 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 10k'!$B$6:$E$6</c:f>
+              <c:f>'Charm 10k'!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>61.1</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.739999999999995</c:v>
+                  <c:v>6.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.8</c:v>
+                  <c:v>7.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.5</c:v>
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5269,9 +5576,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 50k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 50k'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5283,16 +5590,25 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 50k'!$B$2:$E$2</c:f>
+              <c:f>'Charm 50k'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.22</c:v>
                 </c:pt>
@@ -5304,6 +5620,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,9 +5742,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 50k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 50k'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5431,16 +5756,25 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 50k'!$B$3:$E$3</c:f>
+              <c:f>'Charm 50k'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>23.48</c:v>
                 </c:pt>
@@ -5452,6 +5786,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.020000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5512,9 +5855,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 50k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 50k'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5526,16 +5869,25 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 50k'!$B$4:$E$4</c:f>
+              <c:f>'Charm 50k'!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.63</c:v>
                 </c:pt>
@@ -5547,6 +5899,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5660,9 +6021,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 50k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 50k'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5674,16 +6035,25 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 50k'!$B$5:$E$5</c:f>
+              <c:f>'Charm 50k'!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.7000000000000006</c:v>
                 </c:pt>
@@ -5695,6 +6065,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27.609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>185.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5785,9 +6164,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Charm 50k'!$B$1:$E$1</c:f>
+              <c:f>'Charm 50k'!$B$1:$H$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5799,16 +6178,25 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Charm 50k'!$B$6:$E$6</c:f>
+              <c:f>'Charm 50k'!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>28.03</c:v>
                 </c:pt>
@@ -5820,6 +6208,15 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>54.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10339,16 +10736,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142764</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>58923</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>210800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311039</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62099</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>379076</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99897</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10462,16 +10859,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66146</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257663</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>423332</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66146</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442871</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>183378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10541,7 +10938,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F8500C06-382B-4AC8-8925-AE1264648FAA}" name="Tableau4" displayName="Tableau4" ref="A3:E9" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F8500C06-382B-4AC8-8925-AE1264648FAA}" name="Tableau4" displayName="Tableau4" ref="A3:E9" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A3:E9" xr:uid="{584227B3-E088-4238-94D8-0A48639BD39C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10550,7 +10947,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{11FAEBFF-EC5E-49AE-9C46-936ACAF30043}" name="poly_modulus_degree" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{11FAEBFF-EC5E-49AE-9C46-936ACAF30043}" name="poly_modulus_degree" dataDxfId="57"/>
     <tableColumn id="2" xr3:uid="{214BF928-02BA-40DD-A7CE-56EBAECE24DD}" name="4096"/>
     <tableColumn id="3" xr3:uid="{47E04976-6E8C-4A37-8D9D-C2AEB22CF464}" name="8 192"/>
     <tableColumn id="4" xr3:uid="{A789A9AA-E069-4BB9-BB6F-15CFB94AC765}" name="16 384"/>
@@ -10561,21 +10958,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51EA0985-E008-4DF4-9079-16F3EC105C07}" name="Tableau7" displayName="Tableau7" ref="A1:E6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
-  <autoFilter ref="A1:E6" xr:uid="{940B1F9E-8C7A-48FC-80D9-BF9CE8D8A92B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E749A2BD-0A0B-48DE-B6FD-AFD4A8A56C53}" name="paramGen" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{3EC7BC31-687F-4123-A3C1-EE30DA3448A1}" name="12" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{D1540B7A-CA0E-43C4-ABDD-F8F5752B14C6}" name="13" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{1A19FBF0-EC10-431B-8122-AD7E4563592E}" name="14" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{B3006348-899B-4548-BE94-FC12832A438C}" name="15" dataDxfId="40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{51EA0985-E008-4DF4-9079-16F3EC105C07}" name="Tableau7" displayName="Tableau7" ref="A1:I6" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A1:I6" xr:uid="{940B1F9E-8C7A-48FC-80D9-BF9CE8D8A92B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E749A2BD-0A0B-48DE-B6FD-AFD4A8A56C53}" name="paramGen" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{3EC7BC31-687F-4123-A3C1-EE30DA3448A1}" name="12" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{D1540B7A-CA0E-43C4-ABDD-F8F5752B14C6}" name="13" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{1A19FBF0-EC10-431B-8122-AD7E4563592E}" name="14" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{B3006348-899B-4548-BE94-FC12832A438C}" name="15" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{A5F0422F-58F7-401C-8075-339D4FE9C275}" name="16" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{B983B945-A16C-4F46-8303-EB2E87716FA6}" name="17" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{BA20A9C3-E36D-4F00-AAEC-76EF073F6015}" name="18" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{7F0728F7-CC02-48A9-ACCE-E16770A5E310}" name="19" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB2FFAA-2CD9-479A-A513-1F2C5C094CD5}" name="Tableau2" displayName="Tableau2" ref="A3:D9" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB2FFAA-2CD9-479A-A513-1F2C5C094CD5}" name="Tableau2" displayName="Tableau2" ref="A3:D9" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A3:D9" xr:uid="{3136BCE0-DE2C-44DE-831C-93ED649268A8}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -10583,36 +10984,39 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3D4A4BC2-BFB5-4082-B9D0-5AFE9A6D1E6B}" name="poly_modulus_degree" totalsRowLabel="Total" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{933D5E04-9F8A-43D4-AFB9-EFBA5F372476}" name="4096" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{86CFF4CB-DDA5-4F59-A2BC-0D5C43B83730}" name="8 192" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{0FE29DFF-F4D2-49D7-BBD0-06E139B3818D}" name="16 384" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{3D4A4BC2-BFB5-4082-B9D0-5AFE9A6D1E6B}" name="poly_modulus_degree" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{933D5E04-9F8A-43D4-AFB9-EFBA5F372476}" name="4096" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{86CFF4CB-DDA5-4F59-A2BC-0D5C43B83730}" name="8 192" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{0FE29DFF-F4D2-49D7-BBD0-06E139B3818D}" name="16 384" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9026A542-D5AE-41BF-95D2-FF399C3D71B9}" name="Tableau24" displayName="Tableau24" ref="A1:C7" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9026A542-D5AE-41BF-95D2-FF399C3D71B9}" name="Tableau24" displayName="Tableau24" ref="A1:C7" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:C7" xr:uid="{F73EEE01-1EBF-45FB-B04B-378005237320}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7DC0D2D9-69B3-489D-AE56-5ACDCE20AE2E}" name="poly_modulus_degree" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{6080F86D-1B70-4988-9C0E-6D638BA71907}" name="4096" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E8E6D894-B540-4F6E-82C8-651819029A58}" name="8 192" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{7DC0D2D9-69B3-489D-AE56-5ACDCE20AE2E}" name="poly_modulus_degree" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6080F86D-1B70-4988-9C0E-6D638BA71907}" name="4096" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E8E6D894-B540-4F6E-82C8-651819029A58}" name="8 192" dataDxfId="24" totalsRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BF617EB4-D911-4F34-B1FD-35218CE0EA3B}" name="Tableau710" displayName="Tableau710" ref="A1:E6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:E6" xr:uid="{E92C8E4F-4EE0-4EE1-9245-A695347F592B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C3CBA308-5885-4C29-8492-3D704A43A7F6}" name="paramGen" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{767924F2-4064-4D51-943A-9D27BA538063}" name="12" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{BD18750D-4D8A-43DA-9699-7EC15D967A2E}" name="13" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{8FEA6676-4C75-4BF0-AB65-746D14CB94DC}" name="14" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B390C745-BAA1-494B-8A0E-F567C41507EB}" name="15" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BF617EB4-D911-4F34-B1FD-35218CE0EA3B}" name="Tableau710" displayName="Tableau710" ref="A1:H6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:H6" xr:uid="{E92C8E4F-4EE0-4EE1-9245-A695347F592B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C3CBA308-5885-4C29-8492-3D704A43A7F6}" name="paramGen" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{767924F2-4064-4D51-943A-9D27BA538063}" name="12" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BD18750D-4D8A-43DA-9699-7EC15D967A2E}" name="13" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8FEA6676-4C75-4BF0-AB65-746D14CB94DC}" name="14" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B390C745-BAA1-494B-8A0E-F567C41507EB}" name="15" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8402D701-AB3E-454F-BC09-633B7DC37E57}" name="16" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D894D088-1BF4-4ECA-95C0-02C8EBE30990}" name="17" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{DBAC45A6-AB6F-470D-B338-3625E01606E9}" name="18" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10931,7 +11335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B62E25-1202-4112-AD3A-085ADDD10173}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="88" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="79" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -11320,10 +11724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221ABF96-8000-4C33-9DE8-E1FABBD04733}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11331,7 +11735,7 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -11347,97 +11751,170 @@
       <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="9">
-        <v>0.42</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="9">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="25">
-        <v>0.45</v>
+        <v>0.06</v>
+      </c>
+      <c r="F2" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.09</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>50.14</v>
+        <v>4.49</v>
       </c>
       <c r="C3" s="9">
-        <v>51.26</v>
+        <v>4.63</v>
       </c>
       <c r="D3" s="9">
-        <v>52.35</v>
+        <v>4.71</v>
       </c>
       <c r="E3" s="25">
-        <v>55.32</v>
+        <v>4.83</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.54</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7.16</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>6.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>2.95</v>
+        <v>0.03</v>
       </c>
       <c r="C4" s="9">
-        <v>3.02</v>
+        <v>0.04</v>
       </c>
       <c r="D4" s="9">
-        <v>3.13</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="25">
-        <v>3.59</v>
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="9">
         <f xml:space="preserve"> B6 - B3 - B4 - B2</f>
-        <v>7.5600000000000014</v>
+        <v>0.63999999999999968</v>
       </c>
       <c r="C5" s="9">
         <f xml:space="preserve"> C6 - C3 - C4 - C2</f>
-        <v>14.039999999999997</v>
+        <v>1.5199999999999998</v>
       </c>
       <c r="D5" s="9">
         <f xml:space="preserve"> D6 - D3 - D4 - D2</f>
-        <v>30.859999999999996</v>
+        <v>2.93</v>
       </c>
       <c r="E5" s="25">
         <f xml:space="preserve"> E6 - E3 - E4 - E2</f>
-        <v>51.14</v>
+        <v>6.5200000000000014</v>
+      </c>
+      <c r="F5" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>36.61</v>
+      </c>
+      <c r="H5" s="9">
+        <v>70.47</v>
+      </c>
+      <c r="I5" s="9">
+        <v>132.49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="30">
-        <v>61.1</v>
+        <v>5.21</v>
       </c>
       <c r="C6" s="30">
-        <v>68.739999999999995</v>
+        <v>6.26</v>
       </c>
       <c r="D6" s="30">
-        <v>86.8</v>
+        <v>7.78</v>
       </c>
       <c r="E6" s="31">
-        <v>110.5</v>
+        <v>11.46</v>
+      </c>
+      <c r="F6" s="30">
+        <v>26.15</v>
+      </c>
+      <c r="G6" s="30">
+        <v>43.99</v>
+      </c>
+      <c r="H6" s="30">
+        <v>76.87</v>
+      </c>
+      <c r="I6" s="30">
+        <v>138.87</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -11450,7 +11927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98608B03-9A3D-47D9-A60A-806B580D5CDF}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="B23" zoomScale="101" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D9"/>
     </sheetView>
   </sheetViews>
@@ -11601,7 +12078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5685DD-7C65-4B38-BC72-937FD3C953BC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -11701,15 +12178,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC24673-90AA-4A85-B4EF-B0C865D37FEA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="48" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
@@ -11725,8 +12202,17 @@
       <c r="E1" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
@@ -11742,8 +12228,17 @@
       <c r="E2" s="25">
         <v>0.23</v>
       </c>
+      <c r="F2" s="32">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G2" s="32">
+        <v>0.33</v>
+      </c>
+      <c r="H2" s="32">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -11759,8 +12254,17 @@
       <c r="E3" s="25">
         <v>25.73</v>
       </c>
+      <c r="F3" s="9">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G3" s="9">
+        <v>32.24</v>
+      </c>
+      <c r="H3" s="9">
+        <v>33.020000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
@@ -11776,8 +12280,17 @@
       <c r="E4" s="25">
         <v>0.87</v>
       </c>
+      <c r="F4" s="9">
+        <v>1.19</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.49</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1.47</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>12</v>
       </c>
@@ -11797,8 +12310,17 @@
         <f xml:space="preserve"> E6 - E3 - E4 - E2</f>
         <v>27.609999999999996</v>
       </c>
+      <c r="F5" s="9">
+        <v>69.33</v>
+      </c>
+      <c r="G5" s="9">
+        <v>185.88</v>
+      </c>
+      <c r="H5" s="9">
+        <v>349.73</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
@@ -11814,8 +12336,18 @@
       <c r="E6" s="31">
         <v>54.44</v>
       </c>
+      <c r="F6" s="30">
+        <v>103.52</v>
+      </c>
+      <c r="G6" s="30">
+        <v>220.54</v>
+      </c>
+      <c r="H6" s="30">
+        <v>384.59</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
@@ -11828,8 +12360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD341B4D-8F18-470F-B652-2DB089DFFFD9}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B2" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
